--- a/model/Auswertung/Infografiken/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_GotOcr/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,95 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Zeichenbasiert::Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Zeichenbasiert::CER</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Falsche Zeichen (absolut)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Gesamtwörter</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::WER</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Precision</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::Recall</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Weitere Metriken::F1 Score</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::Cosine Similarity</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Semantisch::BLEU Score</t>
         </is>
@@ -520,42 +550,60 @@
         <v>299</v>
       </c>
       <c r="C2" t="n">
-        <v>33.44481605351171</v>
+        <v>250</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>17.39130434782609</v>
+      </c>
+      <c r="G2" t="n">
         <v>41</v>
       </c>
-      <c r="F2" t="n">
-        <v>95.1219512195122</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>4</v>
       </c>
-      <c r="I2" t="n">
-        <v>38</v>
-      </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
+        <v>11</v>
+      </c>
+      <c r="L2" t="n">
+        <v>119.5121951219512</v>
+      </c>
+      <c r="M2" t="n">
+        <v>117.0731707317073</v>
+      </c>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>7.317073170731707</v>
+      </c>
+      <c r="P2" t="n">
+        <v>9.75609756097561</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.07317073170731707</v>
       </c>
-      <c r="M2" t="n">
+      <c r="S2" t="n">
         <v>0.1363636363636364</v>
       </c>
-      <c r="N2" t="n">
+      <c r="T2" t="n">
         <v>5.103056756448722</v>
       </c>
-      <c r="O2" t="n">
+      <c r="U2" t="n">
         <v>2.152725823428372e-230</v>
       </c>
     </row>
@@ -569,42 +617,60 @@
         <v>269</v>
       </c>
       <c r="C3" t="n">
-        <v>59.47955390334572</v>
+        <v>237</v>
       </c>
       <c r="D3" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
+        <v>23</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20.44609665427509</v>
+      </c>
+      <c r="G3" t="n">
         <v>47</v>
       </c>
-      <c r="F3" t="n">
-        <v>68.08510638297872</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>41</v>
       </c>
-      <c r="H3" t="n">
-        <v>46</v>
-      </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>14.8936170212766</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6.382978723404255</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>87.2340425531915</v>
+      </c>
+      <c r="P3" t="n">
+        <v>95.74468085106383</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0.9534883720930233</v>
       </c>
-      <c r="L3" t="n">
+      <c r="R3" t="n">
         <v>0.8723404255319149</v>
       </c>
-      <c r="M3" t="n">
+      <c r="S3" t="n">
         <v>0.9111111111111111</v>
       </c>
-      <c r="N3" t="n">
+      <c r="T3" t="n">
         <v>92.11777188373277</v>
       </c>
-      <c r="O3" t="n">
+      <c r="U3" t="n">
         <v>26.05983848082905</v>
       </c>
     </row>
@@ -618,42 +684,60 @@
         <v>98</v>
       </c>
       <c r="C4" t="n">
-        <v>16.3265306122449</v>
+        <v>86</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>22.44897959183674</v>
+      </c>
+      <c r="G4" t="n">
         <v>13</v>
       </c>
-      <c r="F4" t="n">
-        <v>61.53846153846154</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>9</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>10</v>
       </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>84.61538461538461</v>
+      </c>
+      <c r="M4" t="n">
+        <v>76.92307692307693</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>69.23076923076923</v>
+      </c>
+      <c r="P4" t="n">
+        <v>76.92307692307693</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="L4" t="n">
+      <c r="R4" t="n">
         <v>0.3846153846153846</v>
       </c>
-      <c r="M4" t="n">
+      <c r="S4" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="N4" t="n">
+      <c r="T4" t="n">
         <v>50.85630594818787</v>
       </c>
-      <c r="O4" t="n">
+      <c r="U4" t="n">
         <v>22.04887282071633</v>
       </c>
     </row>
@@ -667,42 +751,60 @@
         <v>542</v>
       </c>
       <c r="C5" t="n">
-        <v>37.26937269372694</v>
+        <v>462</v>
       </c>
       <c r="D5" t="n">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20.29520295202952</v>
+      </c>
+      <c r="G5" t="n">
         <v>88</v>
       </c>
-      <c r="F5" t="n">
-        <v>59.09090909090909</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>55</v>
       </c>
-      <c r="H5" t="n">
-        <v>83</v>
-      </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>34.09090909090909</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.63636363636363</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18</v>
+      </c>
+      <c r="O5" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="P5" t="n">
+        <v>82.95454545454545</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="R5" t="n">
         <v>0.6590909090909091</v>
       </c>
-      <c r="M5" t="n">
+      <c r="S5" t="n">
         <v>0.7945205479452054</v>
       </c>
-      <c r="N5" t="n">
+      <c r="T5" t="n">
         <v>70.81431920476142</v>
       </c>
-      <c r="O5" t="n">
+      <c r="U5" t="n">
         <v>13.71470505249642</v>
       </c>
     </row>
@@ -716,42 +818,60 @@
         <v>414</v>
       </c>
       <c r="C6" t="n">
-        <v>86.95652173913044</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
         <v>360</v>
       </c>
       <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>86.95652173913044</v>
+      </c>
+      <c r="G6" t="n">
         <v>60</v>
-      </c>
-      <c r="F6" t="n">
-        <v>88.33333333333333</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
       </c>
       <c r="H6" t="n">
         <v>7</v>
       </c>
       <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
         <v>52</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>0</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="M6" t="n">
+        <v>86.66666666666667</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="L6" t="n">
+      <c r="R6" t="n">
         <v>0.1166666666666667</v>
       </c>
-      <c r="M6" t="n">
+      <c r="S6" t="n">
         <v>0.208955223880597</v>
       </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>18.11403502937821</v>
       </c>
-      <c r="O6" t="n">
+      <c r="U6" t="n">
         <v>0.03641290712956944</v>
       </c>
     </row>
@@ -765,42 +885,60 @@
         <v>300</v>
       </c>
       <c r="C7" t="n">
-        <v>15.66666666666667</v>
+        <v>268</v>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
+        <v>31</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21</v>
+      </c>
+      <c r="G7" t="n">
         <v>49</v>
       </c>
-      <c r="F7" t="n">
-        <v>12.24489795918367</v>
-      </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>45</v>
       </c>
-      <c r="H7" t="n">
-        <v>48</v>
-      </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>10.20408163265306</v>
+      </c>
+      <c r="M7" t="n">
+        <v>8.163265306122449</v>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
+        <v>91.83673469387756</v>
+      </c>
+      <c r="P7" t="n">
+        <v>93.87755102040816</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
         <v>0.9183673469387755</v>
       </c>
-      <c r="M7" t="n">
+      <c r="S7" t="n">
         <v>0.9574468085106383</v>
       </c>
-      <c r="N7" t="n">
+      <c r="T7" t="n">
         <v>96.34276208027002</v>
       </c>
-      <c r="O7" t="n">
+      <c r="U7" t="n">
         <v>81.58395533417601</v>
       </c>
     </row>
@@ -814,42 +952,60 @@
         <v>252</v>
       </c>
       <c r="C8" t="n">
-        <v>84.52380952380952</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
         <v>213</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>84.52380952380952</v>
+      </c>
+      <c r="G8" t="n">
         <v>32</v>
-      </c>
-      <c r="F8" t="n">
-        <v>81.25</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6</v>
       </c>
       <c r="H8" t="n">
         <v>6</v>
       </c>
       <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
         <v>26</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>81.25</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="P8" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" t="n">
+      <c r="R8" t="n">
         <v>0.1875</v>
       </c>
-      <c r="M8" t="n">
+      <c r="S8" t="n">
         <v>0.3157894736842105</v>
       </c>
-      <c r="N8" t="n">
+      <c r="T8" t="n">
         <v>20.44914812494951</v>
       </c>
-      <c r="O8" t="n">
+      <c r="U8" t="n">
         <v>1.312372873694097</v>
       </c>
     </row>
@@ -863,42 +1019,60 @@
         <v>547</v>
       </c>
       <c r="C9" t="n">
-        <v>44.97257769652651</v>
+        <v>471</v>
       </c>
       <c r="D9" t="n">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="E9" t="n">
+        <v>65</v>
+      </c>
+      <c r="F9" t="n">
+        <v>25.77696526508227</v>
+      </c>
+      <c r="G9" t="n">
         <v>79</v>
       </c>
-      <c r="F9" t="n">
-        <v>53.16455696202531</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>66</v>
       </c>
-      <c r="H9" t="n">
-        <v>71</v>
-      </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="J9" t="n">
+        <v>8</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12.65822784810127</v>
+      </c>
+      <c r="M9" t="n">
+        <v>10.12658227848101</v>
+      </c>
+      <c r="N9" t="n">
         <v>2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
+        <v>83.54430379746836</v>
+      </c>
+      <c r="P9" t="n">
+        <v>86.07594936708861</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" t="n">
+      <c r="R9" t="n">
         <v>0.9367088607594937</v>
       </c>
-      <c r="M9" t="n">
+      <c r="S9" t="n">
         <v>0.9673202614379085</v>
       </c>
-      <c r="N9" t="n">
+      <c r="T9" t="n">
         <v>89.14702208232664</v>
       </c>
-      <c r="O9" t="n">
+      <c r="U9" t="n">
         <v>27.82732082204167</v>
       </c>
     </row>

--- a/model/Auswertung/Infografiken/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_GotOcr/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,644 +436,673 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Gesamtzeichen</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekte Zeichen</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Zeichen</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Zeichen</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>CER</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gesamtwörter</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Korrekt erkannte Wörter</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Fehlende Wörter</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Zusätzliche Wörter</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt fehlend</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Fast korrekt zusätzlich</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>WER</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Erweiterter WER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Precision erweitert</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Recall erweitert</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>F1-Score erweitert</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Cosine Similarity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>BLEU Score</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Durchlauf</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Gesamtzeichen</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Korrekte Zeichen</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Fehlende Zeichen</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::Zusätzliche Zeichen</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Zeichenbasiert::CER</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Gesamtwörter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Wörter inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fehlende Wörter</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Zusätzliche Wörter</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::WER</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Word Error Rate inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Fast korrekt erkannte Wörter</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Wortbasiert::Korrekt erkannte Quote inkl. fast korrekter Wörter</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Precision</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::Recall</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Weitere Metriken::F1 Score</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::Cosine Similarity</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Semantisch::BLEU Score</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>299</v>
+      </c>
+      <c r="B2" t="n">
+        <v>250</v>
+      </c>
+      <c r="C2" t="n">
+        <v>49</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1739</v>
+      </c>
+      <c r="F2" t="n">
+        <v>41</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>38</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.2195</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1707</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2143</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.0732</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1071</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1111</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="inlineStr">
         <is>
           <t>7</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>299</v>
-      </c>
-      <c r="C2" t="n">
-        <v>250</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>17.39130434782609</v>
-      </c>
-      <c r="G2" t="n">
-        <v>41</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>37</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11</v>
-      </c>
-      <c r="L2" t="n">
-        <v>119.5121951219512</v>
-      </c>
-      <c r="M2" t="n">
-        <v>117.0731707317073</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>7.317073170731707</v>
-      </c>
-      <c r="P2" t="n">
-        <v>9.75609756097561</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.07317073170731707</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5.103056756448722</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.152725823428372e-230</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>269</v>
+      </c>
+      <c r="B3" t="n">
+        <v>237</v>
+      </c>
+      <c r="C3" t="n">
+        <v>32</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2045</v>
+      </c>
+      <c r="F3" t="n">
+        <v>47</v>
+      </c>
+      <c r="G3" t="n">
+        <v>41</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2553</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0851</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8723</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.9535</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.8723</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.9535</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.8723</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.9535</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.9212</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2606</v>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>5</t>
         </is>
-      </c>
-      <c r="B3" t="n">
-        <v>269</v>
-      </c>
-      <c r="C3" t="n">
-        <v>237</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32</v>
-      </c>
-      <c r="E3" t="n">
-        <v>23</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20.44609665427509</v>
-      </c>
-      <c r="G3" t="n">
-        <v>47</v>
-      </c>
-      <c r="H3" t="n">
-        <v>41</v>
-      </c>
-      <c r="I3" t="n">
-        <v>45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>14.8936170212766</v>
-      </c>
-      <c r="M3" t="n">
-        <v>6.382978723404255</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="n">
-        <v>87.2340425531915</v>
-      </c>
-      <c r="P3" t="n">
-        <v>95.74468085106383</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.9534883720930233</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.8723404255319149</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.9111111111111111</v>
-      </c>
-      <c r="T3" t="n">
-        <v>92.11777188373277</v>
-      </c>
-      <c r="U3" t="n">
-        <v>26.05983848082905</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>98</v>
+      </c>
+      <c r="B4" t="n">
+        <v>86</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2245</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.9231</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7692</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5294</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.6923</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.6429</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5086000000000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2205</v>
+      </c>
+      <c r="V4" t="inlineStr">
         <is>
           <t>6</t>
         </is>
-      </c>
-      <c r="B4" t="n">
-        <v>98</v>
-      </c>
-      <c r="C4" t="n">
-        <v>86</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22.44897959183674</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>84.61538461538461</v>
-      </c>
-      <c r="M4" t="n">
-        <v>76.92307692307693</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="P4" t="n">
-        <v>76.92307692307693</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="T4" t="n">
-        <v>50.85630594818787</v>
-      </c>
-      <c r="U4" t="n">
-        <v>22.04887282071633</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>542</v>
+      </c>
+      <c r="B5" t="n">
+        <v>462</v>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="F5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G5" t="n">
+        <v>58</v>
+      </c>
+      <c r="H5" t="n">
+        <v>30</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" t="n">
+        <v>18</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.6818</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2727</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6591</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.8286</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.6591</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.8286</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.6591</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.8286</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.7081</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1371</v>
+      </c>
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
-      </c>
-      <c r="B5" t="n">
-        <v>542</v>
-      </c>
-      <c r="C5" t="n">
-        <v>462</v>
-      </c>
-      <c r="D5" t="n">
-        <v>80</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F5" t="n">
-        <v>20.29520295202952</v>
-      </c>
-      <c r="G5" t="n">
-        <v>88</v>
-      </c>
-      <c r="H5" t="n">
-        <v>55</v>
-      </c>
-      <c r="I5" t="n">
-        <v>73</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>34.09090909090909</v>
-      </c>
-      <c r="M5" t="n">
-        <v>13.63636363636363</v>
-      </c>
-      <c r="N5" t="n">
-        <v>18</v>
-      </c>
-      <c r="O5" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>82.95454545454545</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.6590909090909091</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.7945205479452054</v>
-      </c>
-      <c r="T5" t="n">
-        <v>70.81431920476142</v>
-      </c>
-      <c r="U5" t="n">
-        <v>13.71470505249642</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A6" t="n">
+        <v>414</v>
       </c>
       <c r="B6" t="n">
-        <v>414</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>360</v>
       </c>
       <c r="D6" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
+        <v>0.8696</v>
+      </c>
+      <c r="F6" t="n">
+        <v>60</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>52</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>86.95652173913044</v>
-      </c>
-      <c r="G6" t="n">
-        <v>60</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7</v>
-      </c>
       <c r="J6" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>86.66666666666667</v>
+        <v>0.8667</v>
       </c>
       <c r="M6" t="n">
-        <v>86.66666666666667</v>
+        <v>0.8667</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>11.66666666666667</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>11.66666666666667</v>
+        <v>0.1333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0.1333</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.2353</v>
       </c>
       <c r="S6" t="n">
-        <v>0.208955223880597</v>
+        <v>0.2353</v>
       </c>
       <c r="T6" t="n">
-        <v>18.11403502937821</v>
+        <v>0.1811</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03641290712956944</v>
+        <v>0.0004</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A7" t="n">
+        <v>300</v>
       </c>
       <c r="B7" t="n">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="C7" t="n">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="n">
-        <v>31</v>
+        <v>0.21</v>
       </c>
       <c r="F7" t="n">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="G7" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>10.20408163265306</v>
+        <v>0.1224</v>
       </c>
       <c r="M7" t="n">
-        <v>8.163265306122449</v>
+        <v>0.08160000000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.9216</v>
       </c>
       <c r="O7" t="n">
-        <v>91.83673469387756</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="P7" t="n">
-        <v>93.87755102040816</v>
+        <v>0.9592000000000001</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0.9792</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9183673469387755</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.9592000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>96.34276208027002</v>
+        <v>0.9634</v>
       </c>
       <c r="U7" t="n">
-        <v>81.58395533417601</v>
+        <v>0.8158</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A8" t="n">
+        <v>252</v>
       </c>
       <c r="B8" t="n">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="D8" t="n">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0.8452</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="n">
-        <v>84.52380952380952</v>
-      </c>
-      <c r="G8" t="n">
-        <v>32</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
       <c r="J8" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>81.25</v>
+        <v>0.8125</v>
       </c>
       <c r="M8" t="n">
-        <v>81.25</v>
+        <v>0.8125</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>18.75</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>18.75</v>
+        <v>0.1875</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0.1875</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1875</v>
+        <v>0.3158</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3158</v>
       </c>
       <c r="T8" t="n">
-        <v>20.44914812494951</v>
+        <v>0.2045</v>
       </c>
       <c r="U8" t="n">
-        <v>1.312372873694097</v>
+        <v>0.0131</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>547</v>
+      </c>
+      <c r="B9" t="n">
+        <v>471</v>
+      </c>
+      <c r="C9" t="n">
+        <v>76</v>
+      </c>
+      <c r="D9" t="n">
+        <v>65</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2578</v>
+      </c>
+      <c r="F9" t="n">
+        <v>79</v>
+      </c>
+      <c r="G9" t="n">
+        <v>69</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1519</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1013</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9718</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.8734</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.8961</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9452</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.8915</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.2783</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
-      </c>
-      <c r="B9" t="n">
-        <v>547</v>
-      </c>
-      <c r="C9" t="n">
-        <v>471</v>
-      </c>
-      <c r="D9" t="n">
-        <v>76</v>
-      </c>
-      <c r="E9" t="n">
-        <v>65</v>
-      </c>
-      <c r="F9" t="n">
-        <v>25.77696526508227</v>
-      </c>
-      <c r="G9" t="n">
-        <v>79</v>
-      </c>
-      <c r="H9" t="n">
-        <v>66</v>
-      </c>
-      <c r="I9" t="n">
-        <v>68</v>
-      </c>
-      <c r="J9" t="n">
-        <v>8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>12.65822784810127</v>
-      </c>
-      <c r="M9" t="n">
-        <v>10.12658227848101</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>83.54430379746836</v>
-      </c>
-      <c r="P9" t="n">
-        <v>86.07594936708861</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.9367088607594937</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.9673202614379085</v>
-      </c>
-      <c r="T9" t="n">
-        <v>89.14702208232664</v>
-      </c>
-      <c r="U9" t="n">
-        <v>27.82732082204167</v>
       </c>
     </row>
   </sheetData>

--- a/model/Auswertung/Infografiken/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_GotOcr/results.xlsx
@@ -647,19 +647,19 @@
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>0.2553</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0851</v>
+        <v>0.0638</v>
       </c>
       <c r="N3" t="n">
         <v>0.8723</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9535</v>
+        <v>0.9762</v>
       </c>
       <c r="P3" t="n">
         <v>0.8723</v>
@@ -671,7 +671,7 @@
         <v>0.8723</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9535</v>
+        <v>0.9647</v>
       </c>
       <c r="T3" t="n">
         <v>0.9212</v>
@@ -760,64 +760,64 @@
         <v>542</v>
       </c>
       <c r="B5" t="n">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C5" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>0.203</v>
+        <v>0.1734</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6818</v>
+        <v>0.5682</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2727</v>
+        <v>0.2386</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6591</v>
+        <v>0.7111</v>
       </c>
       <c r="O5" t="n">
-        <v>0.8286</v>
+        <v>0.8767</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6591</v>
+        <v>0.7272999999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8286</v>
+        <v>0.8421</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6591</v>
+        <v>0.7191</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8286</v>
+        <v>0.8591</v>
       </c>
       <c r="T5" t="n">
         <v>0.7081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1371</v>
+        <v>0.3316</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
         <v>547</v>
       </c>
       <c r="B9" t="n">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C9" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2578</v>
+        <v>0.2431</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
       </c>
       <c r="G9" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I9" t="n">
         <v>2</v>
@@ -1070,28 +1070,28 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1519</v>
+        <v>0.1266</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1013</v>
+        <v>0.0759</v>
       </c>
       <c r="N9" t="n">
-        <v>0.9718</v>
+        <v>0.9726</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.8734</v>
+        <v>0.8987000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8961</v>
+        <v>0.9221</v>
       </c>
       <c r="R9" t="n">
-        <v>0.92</v>
+        <v>0.9342</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9452</v>
+        <v>0.9595</v>
       </c>
       <c r="T9" t="n">
         <v>0.8915</v>

--- a/model/Auswertung/Infografiken/Ergebnis_GotOcr/results.xlsx
+++ b/model/Auswertung/Infografiken/Ergebnis_GotOcr/results.xlsx
@@ -547,64 +547,64 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="B2" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C2" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1739</v>
+        <v>0.0939</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.2195</v>
+        <v>1.1795</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1707</v>
+        <v>1.1795</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2</v>
+        <v>0.2667</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2143</v>
+        <v>0.2667</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0732</v>
+        <v>0.1026</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.075</v>
+        <v>0.1026</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1071</v>
+        <v>0.1481</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1111</v>
+        <v>0.1481</v>
       </c>
       <c r="T2" t="n">
-        <v>0.051</v>
+        <v>0.0718</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -617,19 +617,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B3" t="n">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2045</v>
+        <v>0.0156</v>
       </c>
       <c r="F3" t="n">
         <v>47</v>
@@ -687,19 +687,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" t="n">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2245</v>
+        <v>0.0435</v>
       </c>
       <c r="F4" t="n">
         <v>13</v>
@@ -757,19 +757,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="B5" t="n">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="C5" t="n">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1734</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="F5" t="n">
         <v>88</v>
@@ -827,19 +827,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8696</v>
+        <v>0.8658</v>
       </c>
       <c r="F6" t="n">
         <v>60</v>
@@ -897,19 +897,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B7" t="n">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.21</v>
+        <v>0.0035</v>
       </c>
       <c r="F7" t="n">
         <v>49</v>
@@ -967,19 +967,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B8" t="n">
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8452</v>
+        <v>0.834</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
@@ -1037,19 +1037,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="B9" t="n">
-        <v>475</v>
+        <v>502</v>
       </c>
       <c r="C9" t="n">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2431</v>
+        <v>0.0462</v>
       </c>
       <c r="F9" t="n">
         <v>79</v>
